--- a/Bonus.xlsx
+++ b/Bonus.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pages" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Table</t>
   </si>
@@ -58,6 +59,39 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Parent:</t>
+  </si>
+  <si>
+    <t>choose an activity</t>
+  </si>
+  <si>
+    <t>see other opinions</t>
+  </si>
+  <si>
+    <t>write opinion</t>
+  </si>
+  <si>
+    <t>private KG:</t>
+  </si>
+  <si>
+    <t>monthly cost</t>
+  </si>
+  <si>
+    <t>avg opinion on KG</t>
+  </si>
+  <si>
+    <t>show teacher information</t>
+  </si>
+  <si>
+    <t>activity:</t>
+  </si>
+  <si>
+    <t>avg opinion</t>
+  </si>
+  <si>
+    <t>num Of kids in</t>
   </si>
 </sst>
 </file>
@@ -273,39 +307,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,121 +639,121 @@
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -730,4 +765,66 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>